--- a/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_14º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B39" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -661,7 +661,7 @@
         </is>
       </c>
       <c r="B46" s="65">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47">
